--- a/PF2/extended_output.xlsx
+++ b/PF2/extended_output.xlsx
@@ -402,10 +402,10 @@
         <v>159</v>
       </c>
       <c r="B2">
-        <v>0.08104586601257324</v>
+        <v>0.7370374202728271</v>
       </c>
       <c r="C2">
-        <v>1961.852069978908</v>
+        <v>215.7285310441136</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -413,10 +413,10 @@
         <v>264</v>
       </c>
       <c r="B3">
-        <v>0.09964418411254883</v>
+        <v>0.3995323181152344</v>
       </c>
       <c r="C3">
-        <v>2649.427082485919</v>
+        <v>660.7725784121832</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -424,10 +424,10 @@
         <v>462</v>
       </c>
       <c r="B4">
-        <v>0.1407387256622314</v>
+        <v>0.4484677314758301</v>
       </c>
       <c r="C4">
-        <v>3282.678579233306</v>
+        <v>1030.174453086374</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -435,10 +435,10 @@
         <v>854</v>
       </c>
       <c r="B5">
-        <v>0.2285332679748535</v>
+        <v>0.7802302837371826</v>
       </c>
       <c r="C5">
-        <v>3736.873880847708</v>
+        <v>1094.548645189048</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -446,10 +446,10 @@
         <v>1678</v>
       </c>
       <c r="B6">
-        <v>0.5167102813720703</v>
+        <v>1.438035488128662</v>
       </c>
       <c r="C6">
-        <v>3247.467798674812</v>
+        <v>1166.869673142495</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -457,10 +457,10 @@
         <v>3526</v>
       </c>
       <c r="B7">
-        <v>0.8204672336578369</v>
+        <v>2.593583583831787</v>
       </c>
       <c r="C7">
-        <v>4297.551267562823</v>
+        <v>1359.508913451191</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -468,10 +468,10 @@
         <v>7981</v>
       </c>
       <c r="B8">
-        <v>4.735725164413452</v>
+        <v>7.023740291595459</v>
       </c>
       <c r="C8">
-        <v>1685.275163342063</v>
+        <v>1136.289166265158</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -479,10 +479,10 @@
         <v>19601</v>
       </c>
       <c r="B9">
-        <v>8.982017517089844</v>
+        <v>17.60385537147522</v>
       </c>
       <c r="C9">
-        <v>2182.249139762387</v>
+        <v>1113.449274967397</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -490,87 +490,87 @@
         <v>52664</v>
       </c>
       <c r="B10">
-        <v>21.32693028450012</v>
+        <v>60.15636849403381</v>
       </c>
       <c r="C10">
-        <v>2469.366162755963</v>
+        <v>875.4517820540166</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>156195</v>
+        <v>156194.3162470096</v>
       </c>
       <c r="B11">
-        <v>50.39159655570984</v>
+        <v>162.4618598135668</v>
       </c>
       <c r="C11">
-        <v>3099.623958675738</v>
+        <v>961.4214464013307</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>516457</v>
+        <v>516454.1230609241</v>
       </c>
       <c r="B12">
-        <v>154.3340766429901</v>
+        <v>537.1776602176379</v>
       </c>
       <c r="C12">
-        <v>3346.357533175792</v>
+        <v>961.4214464013307</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>1924587.164213618</v>
+        <v>1924575.371149872</v>
       </c>
       <c r="B13">
-        <v>662.4313195225798</v>
+        <v>2001.801996776435</v>
       </c>
       <c r="C13">
-        <v>2905.338421499584</v>
+        <v>961.4214464013307</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>8180339.789794811</v>
+        <v>8180284.65154754</v>
       </c>
       <c r="B14">
-        <v>2815.623725367094</v>
+        <v>8508.531489667648</v>
       </c>
       <c r="C14">
-        <v>2905.338421499584</v>
+        <v>961.4214464013307</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>40183566.29964325</v>
+        <v>40183268.36388537</v>
       </c>
       <c r="B15">
-        <v>13830.94169074548</v>
+        <v>41795.68545542043</v>
       </c>
       <c r="C15">
-        <v>2905.338421499584</v>
+        <v>961.4214464013307</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>231447943.1592029</v>
+        <v>231446055.515595</v>
       </c>
       <c r="B16">
-        <v>79662.98915351195</v>
+        <v>240733.1939410277</v>
       </c>
       <c r="C16">
-        <v>2905.338421499584</v>
+        <v>961.4214464013307</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>1588176107.425916</v>
+        <v>1588161859.296788</v>
       </c>
       <c r="B17">
-        <v>546640.6583389285</v>
+        <v>1651889.361571236</v>
       </c>
       <c r="C17">
-        <v>2905.338421499584</v>
+        <v>961.4214464013307</v>
       </c>
     </row>
   </sheetData>
